--- a/Sprint 0/Equipo 1 - Grupo 20.xlsx
+++ b/Sprint 0/Equipo 1 - Grupo 20.xlsx
@@ -1,13 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E0D225EE6FD36EE58C003D0C729F5CE2EB3445DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Integrantes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Horarios" sheetId="2" r:id="rId5"/>
+    <sheet name="Integrantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Horarios" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,30 +128,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,11 +168,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -162,52 +192,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -397,27 +416,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="28.86"/>
-    <col customWidth="1" min="4" max="4" width="12.43"/>
-    <col customWidth="1" min="5" max="5" width="27.57"/>
-    <col customWidth="1" min="6" max="6" width="52.86"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -448,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>3.227398137E9</v>
+        <v>3227398137</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -457,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -468,14 +490,14 @@
         <v>13</v>
       </c>
       <c r="D3" s="4">
-        <v>3.16730859E9</v>
+        <v>3167308590</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -486,14 +508,14 @@
         <v>17</v>
       </c>
       <c r="D4" s="4">
-        <v>3.102873041E9</v>
+        <v>3102873041</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -504,14 +526,14 @@
         <v>21</v>
       </c>
       <c r="D5" s="4">
-        <v>3.22614266E9</v>
+        <v>3226142660</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -522,54 +544,55 @@
         <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>3.233129728E9</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>3233129728</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="E3"/>
-    <hyperlink r:id="rId4" ref="E4"/>
-    <hyperlink r:id="rId5" ref="E5"/>
-    <hyperlink r:id="rId6" ref="E6"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>